--- a/notebooks/CHD8/input/CHD8_IDDAM_individuals.xlsx
+++ b/notebooks/CHD8/input/CHD8_IDDAM_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CHD8/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE3418D-59ED-B24E-9376-6A2AC4667722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C967FE54-5855-594D-854D-BD691B19DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="5560" windowWidth="47740" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="8300" windowWidth="52180" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="356">
   <si>
     <t>PMID</t>
   </si>
@@ -170,9 +170,6 @@
     <t>HP:0001249</t>
   </si>
   <si>
-    <t xml:space="preserve">Intellectual disability, borderline </t>
-  </si>
-  <si>
     <t>HP:0006889</t>
   </si>
   <si>
@@ -507,13 +504,610 @@
   </si>
   <si>
     <t>inferred to be NM_001170629.2:c.2950del;NP_001164100.1:p.(Val984Ter)</t>
+  </si>
+  <si>
+    <t>PMID:31980904</t>
+  </si>
+  <si>
+    <t>De novo variants in the Helicase-C domain of CHD8 are associated with severe phenotypes including autism, language disability and overgrowth</t>
+  </si>
+  <si>
+    <t>GX001</t>
+  </si>
+  <si>
+    <t>ASD397</t>
+  </si>
+  <si>
+    <t>ASD415</t>
+  </si>
+  <si>
+    <t>ASD172</t>
+  </si>
+  <si>
+    <t>c.3562C&gt;T</t>
+  </si>
+  <si>
+    <t>c.4818-1G&gt;A</t>
+  </si>
+  <si>
+    <t>NM_001170629.2(CHD8):c.2065G&gt;T (p.Glu689Ter)-reported as c.2065C&gt;A</t>
+  </si>
+  <si>
+    <t>c.3502T&gt;A</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Tyr1168Asn)</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Arg1188Ter)</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.?</t>
+  </si>
+  <si>
+    <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>Motor delay</t>
+  </si>
+  <si>
+    <t>HP:0001270</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
+  </si>
+  <si>
+    <t>P2Y6M</t>
+  </si>
+  <si>
+    <t>Heterotropia</t>
+  </si>
+  <si>
+    <t>HP:0032012</t>
+  </si>
+  <si>
+    <t>Self-injurious behavior</t>
+  </si>
+  <si>
+    <t>HP:0100716</t>
+  </si>
+  <si>
+    <t>Wide nose</t>
+  </si>
+  <si>
+    <t>HP:0000445</t>
+  </si>
+  <si>
+    <t>Broad forehead</t>
+  </si>
+  <si>
+    <t>HP:0000337</t>
+  </si>
+  <si>
+    <t>Tall chin</t>
+  </si>
+  <si>
+    <t>HP:0400000</t>
+  </si>
+  <si>
+    <t>Macroorchidism</t>
+  </si>
+  <si>
+    <t>HP:0000053</t>
+  </si>
+  <si>
+    <t>Stereotypical hand wringing</t>
+  </si>
+  <si>
+    <t>HP:0012171</t>
+  </si>
+  <si>
+    <t>Macrotia</t>
+  </si>
+  <si>
+    <t>HP:0000400</t>
+  </si>
+  <si>
+    <t>MRI head abn</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>P2Y5M</t>
+  </si>
+  <si>
+    <t>P3Y6M</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>Steroetypic upper-extremity movements</t>
+  </si>
+  <si>
+    <t>HP:5200018</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>Cafe-au-lait spot</t>
+  </si>
+  <si>
+    <t>HP:0000957</t>
+  </si>
+  <si>
+    <t>Intellectual disability, borderline</t>
+  </si>
+  <si>
+    <t>c.2065G&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:31721432</t>
+  </si>
+  <si>
+    <t>The CHD8 overgrowth syndrome: A detailed evaluation of an emerging overgrowth phenotype in 27 patients</t>
+  </si>
+  <si>
+    <t>patient 2</t>
+  </si>
+  <si>
+    <t>patient 4</t>
+  </si>
+  <si>
+    <t>patient 8</t>
+  </si>
+  <si>
+    <t>patient 10</t>
+  </si>
+  <si>
+    <t>patient 12</t>
+  </si>
+  <si>
+    <t>patient 15</t>
+  </si>
+  <si>
+    <t>patient 16</t>
+  </si>
+  <si>
+    <t>patient 20</t>
+  </si>
+  <si>
+    <t>patient 23</t>
+  </si>
+  <si>
+    <t>patient 25</t>
+  </si>
+  <si>
+    <t>c.517_533del</t>
+  </si>
+  <si>
+    <t>c.3518+5G&gt;C</t>
+  </si>
+  <si>
+    <t>c.3528_3529insAA</t>
+  </si>
+  <si>
+    <t>c.4093_4094del</t>
+  </si>
+  <si>
+    <t>c.5386del</t>
+  </si>
+  <si>
+    <t>c.5599+2T&gt;C</t>
+  </si>
+  <si>
+    <t>c.1690C&gt;T</t>
+  </si>
+  <si>
+    <t>p.(Arg564X)</t>
+  </si>
+  <si>
+    <t>c.2140G&gt;T</t>
+  </si>
+  <si>
+    <t>p.(Glu714X)</t>
+  </si>
+  <si>
+    <t>c.2617A&gt;G</t>
+  </si>
+  <si>
+    <t>p.(Asn873Asp)</t>
+  </si>
+  <si>
+    <t>c.2927C&gt;A</t>
+  </si>
+  <si>
+    <t>p.(Thr976Lys)</t>
+  </si>
+  <si>
+    <t>P8Y3M</t>
+  </si>
+  <si>
+    <t>P2Y</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>P7Y9M</t>
+  </si>
+  <si>
+    <t>P7Y6M</t>
+  </si>
+  <si>
+    <t>P12Y6M</t>
+  </si>
+  <si>
+    <t>P3Y9M</t>
+  </si>
+  <si>
+    <t>P10Y5M</t>
+  </si>
+  <si>
+    <t>Esotropia</t>
+  </si>
+  <si>
+    <t>Polyhydramnios</t>
+  </si>
+  <si>
+    <t>Clinodactyly of the 5th finger</t>
+  </si>
+  <si>
+    <t>Kyphosis</t>
+  </si>
+  <si>
+    <t>Retrognathia</t>
+  </si>
+  <si>
+    <t>Striae distensae</t>
+  </si>
+  <si>
+    <t>Pyloric stenosis</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>HP:0000565</t>
+  </si>
+  <si>
+    <t>HP:0001561</t>
+  </si>
+  <si>
+    <t>HP:0004209</t>
+  </si>
+  <si>
+    <t>HP:0002808</t>
+  </si>
+  <si>
+    <t>HP:0000278</t>
+  </si>
+  <si>
+    <t>HP:0001065</t>
+  </si>
+  <si>
+    <t>HP:0002021</t>
+  </si>
+  <si>
+    <t>HP:0000821</t>
+  </si>
+  <si>
+    <t>Reduced social responsiveness</t>
+  </si>
+  <si>
+    <t>HP:0012760</t>
+  </si>
+  <si>
+    <t>PMID:31001818</t>
+  </si>
+  <si>
+    <t>The clinical presentation caused by truncating CHD8 variants</t>
+  </si>
+  <si>
+    <t>individual 1-DDD-SMH279310</t>
+  </si>
+  <si>
+    <t>individual 2-DDD-DUB293181</t>
+  </si>
+  <si>
+    <t>individual 3-DDD-OXF273385</t>
+  </si>
+  <si>
+    <t>individual 4-DDD-NGS276528</t>
+  </si>
+  <si>
+    <t>individual 5-DDD-CAM272076</t>
+  </si>
+  <si>
+    <t>individual 6-DDD-GSH279161</t>
+  </si>
+  <si>
+    <t>individual 7-DDD-NIG283714</t>
+  </si>
+  <si>
+    <t>individual 8-DDD-NWT305513</t>
+  </si>
+  <si>
+    <t>individual 9-MCGM-1</t>
+  </si>
+  <si>
+    <t>individual 10-MCGM-2</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>c.3724C&gt;T</t>
+  </si>
+  <si>
+    <t>c.2059C&gt;G</t>
+  </si>
+  <si>
+    <t>c.3617T&gt;G</t>
+  </si>
+  <si>
+    <t>c.1899+1G&gt;T</t>
+  </si>
+  <si>
+    <t>p.?</t>
+  </si>
+  <si>
+    <t>p.Arg1242Ter</t>
+  </si>
+  <si>
+    <t>p.Gln687Ter</t>
+  </si>
+  <si>
+    <t>p.Leu1206Ter</t>
+  </si>
+  <si>
+    <t>Hyperbilirubinemia</t>
+  </si>
+  <si>
+    <t>HP:0002904</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Ventriculomegaly</t>
+  </si>
+  <si>
+    <t>HP:0002119</t>
+  </si>
+  <si>
+    <t>c.4259_4260del</t>
+  </si>
+  <si>
+    <t>originally coded as NM_001170629.2:c.2706GT&gt;G;	NP_001164100.1:p.(Ser1420Ter)</t>
+  </si>
+  <si>
+    <t>c.2706del</t>
+  </si>
+  <si>
+    <t>originally coded as c.2706GT&gt;G;NP_001164100.1:p.(Tyr902Ter)</t>
+  </si>
+  <si>
+    <t>p.Lys545AsnfsTer47NP_001164100.1:p.(Lys545AsnfsTer47)</t>
+  </si>
+  <si>
+    <t>c.1635del</t>
+  </si>
+  <si>
+    <t>c.3011_3012del</t>
+  </si>
+  <si>
+    <t>originally coded as c.3011_3012GA&gt;T;NP_001164100.1:p.(Glu1004ValfsTer22)</t>
+  </si>
+  <si>
+    <t>c.2562_2563del</t>
+  </si>
+  <si>
+    <t>originally coded as c.2562_2563AAT&gt;A;NP_001164100.1:p.(Tyr854Ter)</t>
+  </si>
+  <si>
+    <t>c.3518+1G&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:38441608</t>
+  </si>
+  <si>
+    <t>CHD8-related disorders redefined: an expanding spectrum of dystonic phenotypes</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
+  </si>
+  <si>
+    <t>Patient 3</t>
+  </si>
+  <si>
+    <t>P53Y</t>
+  </si>
+  <si>
+    <t>P25Y</t>
+  </si>
+  <si>
+    <t>Dystonia</t>
+  </si>
+  <si>
+    <t>HP:0001332</t>
+  </si>
+  <si>
+    <t>Limb dystonia</t>
+  </si>
+  <si>
+    <t>HP:0002451</t>
+  </si>
+  <si>
+    <t>Generalized dystonia</t>
+  </si>
+  <si>
+    <t>HP:0007325</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>P22Y</t>
+  </si>
+  <si>
+    <t>Writer's cramp</t>
+  </si>
+  <si>
+    <t>HP:0002356</t>
+  </si>
+  <si>
+    <t>Mandibular prognathia</t>
+  </si>
+  <si>
+    <t>HP:0000303</t>
+  </si>
+  <si>
+    <t>c.3524_3525insC</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Leu1175PhefsTer3)</t>
+  </si>
+  <si>
+    <t>c.3832dup</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Asp1278GlyfsTer2)</t>
+  </si>
+  <si>
+    <t>c.1172dup</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Gln392ThrfsTer29)</t>
+  </si>
+  <si>
+    <t>PMID:34415117</t>
+  </si>
+  <si>
+    <t>Childhood-onset progressive dystonia associated with pathogenic truncating variants in CHD8</t>
+  </si>
+  <si>
+    <t>c.6649C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Arg2217Ter)</t>
+  </si>
+  <si>
+    <t>Cerebellar vermis atrophy</t>
+  </si>
+  <si>
+    <t>HP:0006855</t>
+  </si>
+  <si>
+    <t>P3M</t>
+  </si>
+  <si>
+    <t>c.4800_4801del</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Gly1602CysfsTer5)</t>
+  </si>
+  <si>
+    <t>PMID:32309624</t>
+  </si>
+  <si>
+    <t>A de novo variant of CHD8 in a patient with autism spectrum disorder</t>
+  </si>
+  <si>
+    <t>case report</t>
+  </si>
+  <si>
+    <t>Smooth philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000319</t>
+  </si>
+  <si>
+    <t>c.4984C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Arg1662Ter)</t>
+  </si>
+  <si>
+    <t>PMID:30631761</t>
+  </si>
+  <si>
+    <t>Targeted Next-Generation Sequencing of Korean Patients With Developmental Delay and/or Intellectual Disability</t>
+  </si>
+  <si>
+    <t>Patient 47_S3</t>
+  </si>
+  <si>
+    <t>c.5488C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Arg1830Cys)</t>
+  </si>
+  <si>
+    <t>PMID:26789910</t>
+  </si>
+  <si>
+    <t>A de novo frameshift mutation in chromodomain helicase DNA-binding domain 8 (CHD8): A case report and literature review</t>
+  </si>
+  <si>
+    <t>frameshift case</t>
+  </si>
+  <si>
+    <t>P10M</t>
+  </si>
+  <si>
+    <t>Pronoun reversal</t>
+  </si>
+  <si>
+    <t>HP:4000073</t>
+  </si>
+  <si>
+    <t>PMID:27595554</t>
+  </si>
+  <si>
+    <t>Identification of a rare variant in CHD8 that contributes to schizophrenia and autism spectrum disorder susceptibility</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P62Y</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>c.6997C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001164100.1:p.(Arg2333Cys)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +1129,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -544,7 +1163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -578,17 +1197,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,170 +1532,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX17"/>
+  <dimension ref="A1:CE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="60" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>126</v>
+      <c r="BA1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1112,10 +1853,10 @@
         <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
@@ -1124,99 +1865,198 @@
         <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
       <c r="AB2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1234,138 +2074,181 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
         <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="1"/>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>85</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>87</v>
+      <c r="AF3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AM3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO3" t="s">
         <v>86</v>
       </c>
       <c r="AP3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1383,138 +2266,181 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
         <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="1"/>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>85</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1532,138 +2458,181 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="1"/>
       <c r="U5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>87</v>
+      <c r="AF5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ5" t="s">
         <v>86</v>
       </c>
       <c r="AK5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="s">
         <v>86</v>
       </c>
       <c r="AP5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1681,138 +2650,181 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
         <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s">
         <v>86</v>
       </c>
       <c r="AP6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR6" t="s">
         <v>86</v>
       </c>
       <c r="AS6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1830,138 +2842,181 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
         <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>85</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>86</v>
       </c>
       <c r="AK7" t="s">
         <v>86</v>
       </c>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s">
         <v>86</v>
       </c>
-      <c r="AN7" t="s">
-        <v>87</v>
+      <c r="AN7" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AO7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1979,138 +3034,181 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M8" t="s">
         <v>36</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
         <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>85</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ8" t="s">
         <v>86</v>
       </c>
       <c r="AK8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ8" t="s">
         <v>86</v>
       </c>
       <c r="AR8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS8" t="s">
         <v>86</v>
       </c>
-      <c r="AT8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>86</v>
+      <c r="AT8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -2128,94 +3226,92 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="s">
         <v>86</v>
@@ -2224,42 +3320,87 @@
         <v>86</v>
       </c>
       <c r="AP9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -2277,64 +3418,62 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>85</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>86</v>
@@ -2342,73 +3481,118 @@
       <c r="AE10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>87</v>
+      <c r="AF10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN10" t="s">
         <v>86</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP10" t="s">
         <v>86</v>
       </c>
       <c r="AQ10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -2426,138 +3610,178 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
         <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
         <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>86</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN11" t="s">
         <v>86</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -2575,138 +3799,178 @@
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
         <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>85</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO12" t="s">
         <v>86</v>
       </c>
       <c r="AP12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ12" t="s">
         <v>86</v>
       </c>
       <c r="AR12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -2724,138 +3988,178 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
         <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
         <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>85</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN13" t="s">
         <v>86</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -2873,138 +4177,178 @@
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s">
         <v>36</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
         <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" t="s">
-        <v>86</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>85</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>87</v>
+      <c r="AF14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO14" t="s">
         <v>86</v>
       </c>
       <c r="AP14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -3022,94 +4366,92 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
         <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
         <v>36</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
         <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" t="s">
         <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>86</v>
+        <v>86</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>85</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN15" t="s">
         <v>86</v>
@@ -3118,42 +4460,84 @@
         <v>86</v>
       </c>
       <c r="AP15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -3171,138 +4555,178 @@
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
         <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
         <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" t="s">
-        <v>87</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>85</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AJ16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL16" t="s">
         <v>86</v>
       </c>
       <c r="AM16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN16" t="s">
         <v>86</v>
       </c>
       <c r="AO16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AQ16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3320,130 +4744,4205 @@
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
         <v>36</v>
       </c>
       <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>157</v>
       </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s">
+        <v>170</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" t="s">
+        <v>170</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" t="s">
+        <v>170</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="V20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="Z21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="W22" t="s">
+        <v>86</v>
+      </c>
+      <c r="X22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" t="s">
+        <v>85</v>
+      </c>
+      <c r="W24" t="s">
+        <v>86</v>
+      </c>
+      <c r="X24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" t="s">
+        <v>86</v>
+      </c>
+      <c r="X25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" t="s">
+        <v>86</v>
+      </c>
+      <c r="W26" t="s">
+        <v>86</v>
+      </c>
+      <c r="X26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>85</v>
+      </c>
+      <c r="W27" t="s">
+        <v>86</v>
+      </c>
+      <c r="X27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W28" t="s">
+        <v>85</v>
+      </c>
+      <c r="X28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" t="s">
+        <v>85</v>
+      </c>
+      <c r="W29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S30" t="s">
+        <v>86</v>
+      </c>
+      <c r="W30" t="s">
+        <v>86</v>
+      </c>
+      <c r="X30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S31" t="s">
+        <v>85</v>
+      </c>
+      <c r="W31" t="s">
+        <v>86</v>
+      </c>
+      <c r="X31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" t="s">
-        <v>86</v>
-      </c>
-      <c r="V17" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>87</v>
+      <c r="O32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH32" s="1"/>
+      <c r="BJ32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH33" s="1"/>
+      <c r="BJ33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH34" s="1"/>
+      <c r="BJ34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH35" s="1"/>
+      <c r="BJ35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ35" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH36" s="1"/>
+      <c r="BJ36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH37" s="1"/>
+      <c r="BJ37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ37" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH38" s="1"/>
+      <c r="BJ38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH39" s="1"/>
+      <c r="BJ39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ39" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH40" s="1"/>
+      <c r="BJ40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY40" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH41" s="1"/>
+      <c r="BJ41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="s">
+        <v>199</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="AA42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>309</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="s">
+        <v>310</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="AA43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>310</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>310</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>310</v>
+      </c>
+      <c r="CE43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="s">
+        <v>199</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="AA44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="AA45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA45" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="AA46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S49" t="s">
+        <v>85</v>
+      </c>
+      <c r="T49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s">
+        <v>85</v>
+      </c>
+      <c r="V50" t="s">
+        <v>85</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>